--- a/docs/docs/application-and-user-data/code-samples/estimate-block-blob/estimating-pricing-for-azure-block-blob-deployments.xlsx
+++ b/docs/docs/application-and-user-data/code-samples/estimate-block-blob/estimating-pricing-for-azure-block-blob-deployments.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/sweisfel_microsoft_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweisfel\src\collateral\PMGitHub\src\content\docs\application-and-user-data\code-samples\estimate-block-blob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{CBD75A2B-827E-45B2-87C7-80CD8D3F333C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6D5F9F4-D476-4575-A08E-F0C1BDAE3122}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D5961-D8DA-489B-AEC4-F8CE23F058A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{5ADAA6FB-4639-48C0-931D-8520D58D2FE6}"/>
+    <workbookView xWindow="17040" yWindow="4335" windowWidth="23445" windowHeight="15705" xr2:uid="{5ADAA6FB-4639-48C0-931D-8520D58D2FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Migration Estimte" sheetId="3" r:id="rId2"/>
+    <sheet name="Migration Estimate" sheetId="3" r:id="rId2"/>
     <sheet name="Monthly Estimate" sheetId="4" r:id="rId3"/>
     <sheet name="Future GB Estimate" sheetId="5" r:id="rId4"/>
     <sheet name="Lookups" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,7 +562,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,11 +946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653795C1-0B81-46BF-9568-CD533CA8D7AC}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
@@ -958,7 +958,7 @@
     <col min="10" max="10" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="45">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,242 +1036,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J15" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="10:10">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="10:10">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="10:10">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="10:10">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="10:10">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="10:10">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="10:10">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="10:10">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="10:10">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="10:10">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="5">
         <v>4</v>
       </c>
@@ -1319,15 +1319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96550298-2053-4F6A-AE2D-F634F343AB26}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="8" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1340,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Inputs!A3</f>
         <v>Example</v>
@@ -1395,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Inputs!A4</f>
         <v>0</v>
@@ -1426,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Inputs!A5</f>
         <v>0</v>
@@ -1457,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Inputs!A6</f>
         <v>0</v>
@@ -1488,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Inputs!A7</f>
         <v>0</v>
@@ -1519,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Inputs!A8</f>
         <v>0</v>
@@ -1550,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Inputs!A9</f>
         <v>0</v>
@@ -1581,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Inputs!A10</f>
         <v>0</v>
@@ -1612,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Inputs!A11</f>
         <v>0</v>
@@ -1643,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Inputs!A12</f>
         <v>0</v>
@@ -1674,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Inputs!A13</f>
         <v>0</v>
@@ -1705,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Inputs!A14</f>
         <v>0</v>
@@ -1736,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Inputs!A15</f>
         <v>0</v>
@@ -1767,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Inputs!A16</f>
         <v>0</v>
@@ -1798,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Inputs!A17</f>
         <v>0</v>
@@ -1829,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>Inputs!A18</f>
         <v>0</v>
@@ -1860,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>Inputs!A19</f>
         <v>0</v>
@@ -1891,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>Inputs!A20</f>
         <v>0</v>
@@ -1922,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>Inputs!A21</f>
         <v>0</v>
@@ -1953,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>Inputs!A22</f>
         <v>0</v>
@@ -1984,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>Inputs!A23</f>
         <v>0</v>
@@ -2015,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Inputs!A24</f>
         <v>0</v>
@@ -2046,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>Inputs!A25</f>
         <v>0</v>
@@ -2077,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>Inputs!A26</f>
         <v>0</v>
@@ -2108,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Inputs!A27</f>
         <v>0</v>
@@ -2139,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>Inputs!A28</f>
         <v>0</v>
@@ -2170,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>Inputs!A29</f>
         <v>0</v>
@@ -2201,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>Inputs!A30</f>
         <v>0</v>
@@ -2232,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>Inputs!A31</f>
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>Inputs!A32</f>
         <v>0</v>
@@ -2294,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>Inputs!A33</f>
         <v>0</v>
@@ -2325,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>Inputs!A34</f>
         <v>0</v>
@@ -2356,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>Inputs!A35</f>
         <v>0</v>
@@ -2387,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>Inputs!A36</f>
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>Inputs!A37</f>
         <v>0</v>
@@ -2449,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>Inputs!A38</f>
         <v>0</v>
@@ -2480,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>Inputs!A39</f>
         <v>0</v>
@@ -2511,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>Inputs!A40</f>
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>Inputs!A41</f>
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>Inputs!A42</f>
         <v>0</v>
@@ -2604,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>Inputs!A43</f>
         <v>0</v>
@@ -2635,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>Inputs!A44</f>
         <v>0</v>
@@ -2666,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>Inputs!A45</f>
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>Inputs!A46</f>
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>Inputs!A47</f>
         <v>0</v>
@@ -2759,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>Inputs!A48</f>
         <v>0</v>
@@ -2790,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>Inputs!A49</f>
         <v>0</v>
@@ -2821,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>Inputs!A50</f>
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>Inputs!A51</f>
         <v>0</v>
@@ -2899,13 +2901,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="8" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2916,7 +2918,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Inputs!A3</f>
         <v>Example</v>
@@ -2976,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Inputs!A4</f>
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Inputs!A5</f>
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Inputs!A6</f>
         <v>0</v>
@@ -3078,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Inputs!A7</f>
         <v>0</v>
@@ -3112,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Inputs!A8</f>
         <v>0</v>
@@ -3146,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Inputs!A9</f>
         <v>0</v>
@@ -3180,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Inputs!A10</f>
         <v>0</v>
@@ -3214,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Inputs!A11</f>
         <v>0</v>
@@ -3248,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Inputs!A12</f>
         <v>0</v>
@@ -3282,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Inputs!A13</f>
         <v>0</v>
@@ -3316,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Inputs!A14</f>
         <v>0</v>
@@ -3350,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Inputs!A15</f>
         <v>0</v>
@@ -3384,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Inputs!A16</f>
         <v>0</v>
@@ -3418,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Inputs!A17</f>
         <v>0</v>
@@ -3452,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>Inputs!A18</f>
         <v>0</v>
@@ -3486,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>Inputs!A19</f>
         <v>0</v>
@@ -3520,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>Inputs!A20</f>
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>Inputs!A21</f>
         <v>0</v>
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>Inputs!A22</f>
         <v>0</v>
@@ -3622,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>Inputs!A23</f>
         <v>0</v>
@@ -3656,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Inputs!A24</f>
         <v>0</v>
@@ -3690,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>Inputs!A25</f>
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>Inputs!A26</f>
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Inputs!A27</f>
         <v>0</v>
@@ -3792,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>Inputs!A28</f>
         <v>0</v>
@@ -3826,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>Inputs!A29</f>
         <v>0</v>
@@ -3860,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>Inputs!A30</f>
         <v>0</v>
@@ -3894,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>Inputs!A31</f>
         <v>0</v>
@@ -3928,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>Inputs!A32</f>
         <v>0</v>
@@ -3962,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>Inputs!A33</f>
         <v>0</v>
@@ -3996,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>Inputs!A34</f>
         <v>0</v>
@@ -4030,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>Inputs!A35</f>
         <v>0</v>
@@ -4064,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>Inputs!A36</f>
         <v>0</v>
@@ -4098,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>Inputs!A37</f>
         <v>0</v>
@@ -4132,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>Inputs!A38</f>
         <v>0</v>
@@ -4166,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>Inputs!A39</f>
         <v>0</v>
@@ -4200,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>Inputs!A40</f>
         <v>0</v>
@@ -4234,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>Inputs!A41</f>
         <v>0</v>
@@ -4268,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>Inputs!A42</f>
         <v>0</v>
@@ -4302,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>Inputs!A43</f>
         <v>0</v>
@@ -4336,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>Inputs!A44</f>
         <v>0</v>
@@ -4370,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>Inputs!A45</f>
         <v>0</v>
@@ -4404,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>Inputs!A46</f>
         <v>0</v>
@@ -4438,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>Inputs!A47</f>
         <v>0</v>
@@ -4472,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>Inputs!A48</f>
         <v>0</v>
@@ -4506,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>Inputs!A49</f>
         <v>0</v>
@@ -4540,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>Inputs!A50</f>
         <v>0</v>
@@ -4574,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>Inputs!A51</f>
         <v>0</v>
@@ -4624,13 +4626,13 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="6" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
@@ -4639,7 +4641,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Inputs!A3</f>
         <v>Example</v>
@@ -4685,7 +4687,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Inputs!A4</f>
         <v>0</v>
@@ -4711,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Inputs!A5</f>
         <v>0</v>
@@ -4737,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Inputs!A6</f>
         <v>0</v>
@@ -4763,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Inputs!A7</f>
         <v>0</v>
@@ -4789,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Inputs!A8</f>
         <v>0</v>
@@ -4815,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Inputs!A9</f>
         <v>0</v>
@@ -4841,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Inputs!A10</f>
         <v>0</v>
@@ -4867,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Inputs!A11</f>
         <v>0</v>
@@ -4893,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Inputs!A12</f>
         <v>0</v>
@@ -4919,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Inputs!A13</f>
         <v>0</v>
@@ -4945,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Inputs!A14</f>
         <v>0</v>
@@ -4971,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Inputs!A15</f>
         <v>0</v>
@@ -4997,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Inputs!A16</f>
         <v>0</v>
@@ -5023,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Inputs!A17</f>
         <v>0</v>
@@ -5049,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>Inputs!A18</f>
         <v>0</v>
@@ -5075,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>Inputs!A19</f>
         <v>0</v>
@@ -5101,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>Inputs!A20</f>
         <v>0</v>
@@ -5127,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>Inputs!A21</f>
         <v>0</v>
@@ -5153,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>Inputs!A22</f>
         <v>0</v>
@@ -5179,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>Inputs!A23</f>
         <v>0</v>
@@ -5205,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Inputs!A24</f>
         <v>0</v>
@@ -5231,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>Inputs!A25</f>
         <v>0</v>
@@ -5257,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>Inputs!A26</f>
         <v>0</v>
@@ -5283,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Inputs!A27</f>
         <v>0</v>
@@ -5309,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>Inputs!A28</f>
         <v>0</v>
@@ -5335,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>Inputs!A29</f>
         <v>0</v>
@@ -5361,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>Inputs!A30</f>
         <v>0</v>
@@ -5387,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>Inputs!A31</f>
         <v>0</v>
@@ -5413,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>Inputs!A32</f>
         <v>0</v>
@@ -5439,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>Inputs!A33</f>
         <v>0</v>
@@ -5465,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>Inputs!A34</f>
         <v>0</v>
@@ -5491,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>Inputs!A35</f>
         <v>0</v>
@@ -5517,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>Inputs!A36</f>
         <v>0</v>
@@ -5543,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>Inputs!A37</f>
         <v>0</v>
@@ -5569,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>Inputs!A38</f>
         <v>0</v>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>Inputs!A39</f>
         <v>0</v>
@@ -5621,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>Inputs!A40</f>
         <v>0</v>
@@ -5647,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>Inputs!A41</f>
         <v>0</v>
@@ -5673,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>Inputs!A42</f>
         <v>0</v>
@@ -5699,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>Inputs!A43</f>
         <v>0</v>
@@ -5725,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>Inputs!A44</f>
         <v>0</v>
@@ -5751,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>Inputs!A45</f>
         <v>0</v>
@@ -5777,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>Inputs!A46</f>
         <v>0</v>
@@ -5803,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>Inputs!A47</f>
         <v>0</v>
@@ -5829,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>Inputs!A48</f>
         <v>0</v>
@@ -5855,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>Inputs!A49</f>
         <v>0</v>
@@ -5881,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>Inputs!A50</f>
         <v>0</v>
@@ -5907,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>Inputs!A51</f>
         <v>0</v>
@@ -5949,14 +5951,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -6102,7 +6104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -6256,7 +6258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -6322,7 +6324,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -6377,7 +6379,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -6745,6 +6747,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6755,23 +6766,47 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2FD976-A6B2-4156-99BD-B7B952DAD9E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2FD976-A6B2-4156-99BD-B7B952DAD9E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="26e5f2d2-5cc0-4d37-a703-4103670a1f6a"/>
+    <ds:schemaRef ds:uri="ca88f7f8-43b1-4127-8c79-e97588915b27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D7C273-4D52-4660-BB0F-33379CFE7FC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FD089-7524-4A58-BEE2-52535C52B86C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FD089-7524-4A58-BEE2-52535C52B86C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D7C273-4D52-4660-BB0F-33379CFE7FC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ca88f7f8-43b1-4127-8c79-e97588915b27"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/docs/docs/application-and-user-data/code-samples/estimate-block-blob/estimating-pricing-for-azure-block-blob-deployments.xlsx
+++ b/docs/docs/application-and-user-data/code-samples/estimate-block-blob/estimating-pricing-for-azure-block-blob-deployments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweisfel\src\collateral\PMGitHub\src\content\docs\application-and-user-data\code-samples\estimate-block-blob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D5961-D8DA-489B-AEC4-F8CE23F058A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86332361-D09A-4E7F-80CD-0FD1A2FE7A58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="4335" windowWidth="23445" windowHeight="15705" xr2:uid="{5ADAA6FB-4639-48C0-931D-8520D58D2FE6}"/>
+    <workbookView xWindow="38775" yWindow="345" windowWidth="19170" windowHeight="19290" xr2:uid="{5ADAA6FB-4639-48C0-931D-8520D58D2FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,8 +2958,8 @@
         <v>300</v>
       </c>
       <c r="D3" s="5">
-        <f>(Inputs!G3*1000)/Inputs!J3</f>
-        <v>3750</v>
+        <f>(Inputs!H3*1000)/Inputs!J3</f>
+        <v>12500</v>
       </c>
       <c r="E3" s="5">
         <f>(Inputs!G3*1000)/Inputs!F3</f>
@@ -2992,7 +2992,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D4" s="5">
-        <f>(Inputs!G4*1000)/Inputs!J4</f>
+        <f>(Inputs!H4*1000)/Inputs!J4</f>
         <v>0</v>
       </c>
       <c r="E4" s="5" t="e">
@@ -3026,7 +3026,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D5" s="5">
-        <f>(Inputs!G5*1000)/Inputs!J5</f>
+        <f>(Inputs!H5*1000)/Inputs!J5</f>
         <v>0</v>
       </c>
       <c r="E5" s="5" t="e">
@@ -3060,7 +3060,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D6" s="5">
-        <f>(Inputs!G6*1000)/Inputs!J6</f>
+        <f>(Inputs!H6*1000)/Inputs!J6</f>
         <v>0</v>
       </c>
       <c r="E6" s="5" t="e">
@@ -3094,7 +3094,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="5">
-        <f>(Inputs!G7*1000)/Inputs!J7</f>
+        <f>(Inputs!H7*1000)/Inputs!J7</f>
         <v>0</v>
       </c>
       <c r="E7" s="5" t="e">
@@ -3128,7 +3128,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="5">
-        <f>(Inputs!G8*1000)/Inputs!J8</f>
+        <f>(Inputs!H8*1000)/Inputs!J8</f>
         <v>0</v>
       </c>
       <c r="E8" s="5" t="e">
@@ -3162,7 +3162,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D9" s="5">
-        <f>(Inputs!G9*1000)/Inputs!J9</f>
+        <f>(Inputs!H9*1000)/Inputs!J9</f>
         <v>0</v>
       </c>
       <c r="E9" s="5" t="e">
@@ -3196,7 +3196,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="5">
-        <f>(Inputs!G10*1000)/Inputs!J10</f>
+        <f>(Inputs!H10*1000)/Inputs!J10</f>
         <v>0</v>
       </c>
       <c r="E10" s="5" t="e">
@@ -3230,7 +3230,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="5">
-        <f>(Inputs!G11*1000)/Inputs!J11</f>
+        <f>(Inputs!H11*1000)/Inputs!J11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="e">
@@ -3264,7 +3264,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="5">
-        <f>(Inputs!G12*1000)/Inputs!J12</f>
+        <f>(Inputs!H12*1000)/Inputs!J12</f>
         <v>0</v>
       </c>
       <c r="E12" s="5" t="e">
@@ -3298,7 +3298,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D13" s="5">
-        <f>(Inputs!G13*1000)/Inputs!J13</f>
+        <f>(Inputs!H13*1000)/Inputs!J13</f>
         <v>0</v>
       </c>
       <c r="E13" s="5" t="e">
@@ -3332,7 +3332,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D14" s="5">
-        <f>(Inputs!G14*1000)/Inputs!J14</f>
+        <f>(Inputs!H14*1000)/Inputs!J14</f>
         <v>0</v>
       </c>
       <c r="E14" s="5" t="e">
@@ -3366,7 +3366,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D15" s="5">
-        <f>(Inputs!G15*1000)/Inputs!J15</f>
+        <f>(Inputs!H15*1000)/Inputs!J15</f>
         <v>0</v>
       </c>
       <c r="E15" s="5" t="e">
@@ -3400,7 +3400,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D16" s="5">
-        <f>(Inputs!G16*1000)/Inputs!J16</f>
+        <f>(Inputs!H16*1000)/Inputs!J16</f>
         <v>0</v>
       </c>
       <c r="E16" s="5" t="e">
@@ -3434,7 +3434,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D17" s="5">
-        <f>(Inputs!G17*1000)/Inputs!J17</f>
+        <f>(Inputs!H17*1000)/Inputs!J17</f>
         <v>0</v>
       </c>
       <c r="E17" s="5" t="e">
@@ -3468,7 +3468,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D18" s="5">
-        <f>(Inputs!G18*1000)/Inputs!J18</f>
+        <f>(Inputs!H18*1000)/Inputs!J18</f>
         <v>0</v>
       </c>
       <c r="E18" s="5" t="e">
@@ -3502,7 +3502,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D19" s="5">
-        <f>(Inputs!G19*1000)/Inputs!J19</f>
+        <f>(Inputs!H19*1000)/Inputs!J19</f>
         <v>0</v>
       </c>
       <c r="E19" s="5" t="e">
@@ -3536,7 +3536,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D20" s="5">
-        <f>(Inputs!G20*1000)/Inputs!J20</f>
+        <f>(Inputs!H20*1000)/Inputs!J20</f>
         <v>0</v>
       </c>
       <c r="E20" s="5" t="e">
@@ -3570,7 +3570,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="5">
-        <f>(Inputs!G21*1000)/Inputs!J21</f>
+        <f>(Inputs!H21*1000)/Inputs!J21</f>
         <v>0</v>
       </c>
       <c r="E21" s="5" t="e">
@@ -3604,7 +3604,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D22" s="5">
-        <f>(Inputs!G22*1000)/Inputs!J22</f>
+        <f>(Inputs!H22*1000)/Inputs!J22</f>
         <v>0</v>
       </c>
       <c r="E22" s="5" t="e">
@@ -3638,7 +3638,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="5">
-        <f>(Inputs!G23*1000)/Inputs!J23</f>
+        <f>(Inputs!H23*1000)/Inputs!J23</f>
         <v>0</v>
       </c>
       <c r="E23" s="5" t="e">
@@ -3672,7 +3672,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="5">
-        <f>(Inputs!G24*1000)/Inputs!J24</f>
+        <f>(Inputs!H24*1000)/Inputs!J24</f>
         <v>0</v>
       </c>
       <c r="E24" s="5" t="e">
@@ -3706,7 +3706,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="5">
-        <f>(Inputs!G25*1000)/Inputs!J25</f>
+        <f>(Inputs!H25*1000)/Inputs!J25</f>
         <v>0</v>
       </c>
       <c r="E25" s="5" t="e">
@@ -3740,7 +3740,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="5">
-        <f>(Inputs!G26*1000)/Inputs!J26</f>
+        <f>(Inputs!H26*1000)/Inputs!J26</f>
         <v>0</v>
       </c>
       <c r="E26" s="5" t="e">
@@ -3774,7 +3774,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="5">
-        <f>(Inputs!G27*1000)/Inputs!J27</f>
+        <f>(Inputs!H27*1000)/Inputs!J27</f>
         <v>0</v>
       </c>
       <c r="E27" s="5" t="e">
@@ -3808,7 +3808,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="5">
-        <f>(Inputs!G28*1000)/Inputs!J28</f>
+        <f>(Inputs!H28*1000)/Inputs!J28</f>
         <v>0</v>
       </c>
       <c r="E28" s="5" t="e">
@@ -3842,7 +3842,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="5">
-        <f>(Inputs!G29*1000)/Inputs!J29</f>
+        <f>(Inputs!H29*1000)/Inputs!J29</f>
         <v>0</v>
       </c>
       <c r="E29" s="5" t="e">
@@ -3876,7 +3876,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="5">
-        <f>(Inputs!G30*1000)/Inputs!J30</f>
+        <f>(Inputs!H30*1000)/Inputs!J30</f>
         <v>0</v>
       </c>
       <c r="E30" s="5" t="e">
@@ -3910,7 +3910,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="5">
-        <f>(Inputs!G31*1000)/Inputs!J31</f>
+        <f>(Inputs!H31*1000)/Inputs!J31</f>
         <v>0</v>
       </c>
       <c r="E31" s="5" t="e">
@@ -3944,7 +3944,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="5">
-        <f>(Inputs!G32*1000)/Inputs!J32</f>
+        <f>(Inputs!H32*1000)/Inputs!J32</f>
         <v>0</v>
       </c>
       <c r="E32" s="5" t="e">
@@ -3978,7 +3978,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="5">
-        <f>(Inputs!G33*1000)/Inputs!J33</f>
+        <f>(Inputs!H33*1000)/Inputs!J33</f>
         <v>0</v>
       </c>
       <c r="E33" s="5" t="e">
@@ -4012,7 +4012,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="5">
-        <f>(Inputs!G34*1000)/Inputs!J34</f>
+        <f>(Inputs!H34*1000)/Inputs!J34</f>
         <v>0</v>
       </c>
       <c r="E34" s="5" t="e">
@@ -4046,7 +4046,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="5">
-        <f>(Inputs!G35*1000)/Inputs!J35</f>
+        <f>(Inputs!H35*1000)/Inputs!J35</f>
         <v>0</v>
       </c>
       <c r="E35" s="5" t="e">
@@ -4080,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="5">
-        <f>(Inputs!G36*1000)/Inputs!J36</f>
+        <f>(Inputs!H36*1000)/Inputs!J36</f>
         <v>0</v>
       </c>
       <c r="E36" s="5" t="e">
@@ -4114,7 +4114,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="5">
-        <f>(Inputs!G37*1000)/Inputs!J37</f>
+        <f>(Inputs!H37*1000)/Inputs!J37</f>
         <v>0</v>
       </c>
       <c r="E37" s="5" t="e">
@@ -4148,7 +4148,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="5">
-        <f>(Inputs!G38*1000)/Inputs!J38</f>
+        <f>(Inputs!H38*1000)/Inputs!J38</f>
         <v>0</v>
       </c>
       <c r="E38" s="5" t="e">
@@ -4182,7 +4182,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D39" s="5">
-        <f>(Inputs!G39*1000)/Inputs!J39</f>
+        <f>(Inputs!H39*1000)/Inputs!J39</f>
         <v>0</v>
       </c>
       <c r="E39" s="5" t="e">
@@ -4216,7 +4216,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="5">
-        <f>(Inputs!G40*1000)/Inputs!J40</f>
+        <f>(Inputs!H40*1000)/Inputs!J40</f>
         <v>0</v>
       </c>
       <c r="E40" s="5" t="e">
@@ -4250,7 +4250,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="5">
-        <f>(Inputs!G41*1000)/Inputs!J41</f>
+        <f>(Inputs!H41*1000)/Inputs!J41</f>
         <v>0</v>
       </c>
       <c r="E41" s="5" t="e">
@@ -4284,7 +4284,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="5">
-        <f>(Inputs!G42*1000)/Inputs!J42</f>
+        <f>(Inputs!H42*1000)/Inputs!J42</f>
         <v>0</v>
       </c>
       <c r="E42" s="5" t="e">
@@ -4318,7 +4318,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="5">
-        <f>(Inputs!G43*1000)/Inputs!J43</f>
+        <f>(Inputs!H43*1000)/Inputs!J43</f>
         <v>0</v>
       </c>
       <c r="E43" s="5" t="e">
@@ -4352,7 +4352,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D44" s="5">
-        <f>(Inputs!G44*1000)/Inputs!J44</f>
+        <f>(Inputs!H44*1000)/Inputs!J44</f>
         <v>0</v>
       </c>
       <c r="E44" s="5" t="e">
@@ -4386,7 +4386,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D45" s="5">
-        <f>(Inputs!G45*1000)/Inputs!J45</f>
+        <f>(Inputs!H45*1000)/Inputs!J45</f>
         <v>0</v>
       </c>
       <c r="E45" s="5" t="e">
@@ -4420,7 +4420,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D46" s="5">
-        <f>(Inputs!G46*1000)/Inputs!J46</f>
+        <f>(Inputs!H46*1000)/Inputs!J46</f>
         <v>0</v>
       </c>
       <c r="E46" s="5" t="e">
@@ -4454,7 +4454,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D47" s="5">
-        <f>(Inputs!G47*1000)/Inputs!J47</f>
+        <f>(Inputs!H47*1000)/Inputs!J47</f>
         <v>0</v>
       </c>
       <c r="E47" s="5" t="e">
@@ -4488,7 +4488,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D48" s="5">
-        <f>(Inputs!G48*1000)/Inputs!J48</f>
+        <f>(Inputs!H48*1000)/Inputs!J48</f>
         <v>0</v>
       </c>
       <c r="E48" s="5" t="e">
@@ -4522,7 +4522,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D49" s="5">
-        <f>(Inputs!G49*1000)/Inputs!J49</f>
+        <f>(Inputs!H49*1000)/Inputs!J49</f>
         <v>0</v>
       </c>
       <c r="E49" s="5" t="e">
@@ -4556,7 +4556,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="5">
-        <f>(Inputs!G50*1000)/Inputs!J50</f>
+        <f>(Inputs!H50*1000)/Inputs!J50</f>
         <v>0</v>
       </c>
       <c r="E50" s="5" t="e">
@@ -4590,7 +4590,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="5">
-        <f>(Inputs!G51*1000)/Inputs!J51</f>
+        <f>(Inputs!H51*1000)/Inputs!J51</f>
         <v>0</v>
       </c>
       <c r="E51" s="5" t="e">
@@ -6487,6 +6487,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E49B481FDD5342B95B2C94FA3B1CAC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="965a5dfffb17db8c525bff4c945be332">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="26e5f2d2-5cc0-4d37-a703-4103670a1f6a" xmlns:ns3="ca88f7f8-43b1-4127-8c79-e97588915b27" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d55802c855b5b356a13ccbc6ec36b8f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6746,15 +6755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6767,6 +6767,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FD089-7524-4A58-BEE2-52535C52B86C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2FD976-A6B2-4156-99BD-B7B952DAD9E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6782,14 +6790,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FD089-7524-4A58-BEE2-52535C52B86C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
